--- a/data/programa.xlsx
+++ b/data/programa.xlsx
@@ -499,7 +499,7 @@
     <t>&lt;p&gt;Modificaremos el Programa de Fomento de Empleo Agrario (PFEA) con el objetivo de garantizar el empleo estable y sostenible en el medio rural en proyectos agrarios, agroalimentarios y forestales y, asimismo, en otros sectores vinculados a la conservación y el mantenimiento del territorio y el patrimonio paisajístico, natural e histórico de las zonas rurales. &lt;/p&gt;&lt;p&gt;Acabaremos con la dependencia ciudadana y las prácticas clientelares de ayuntamientos y empresarios del ámbito agrario gracias a la aplicación del programa Pobreza Cero, que universaliza las rentas y posibilita limitar el requisito de la firma de las peonadas.&lt;/p&gt;&lt;p&gt;De este modo, tanto el subsidio como la renta agraria quedarán integrados en una perspectiva que garantizará una vida digna para un colectivo especialmente vulnerable como es el de los trabajadores agrarios.&lt;/p&gt;&lt;p&gt;Las políticas macroeconómicas en el ÁMBITO europeo: FIN DE la austeridad fiscal y salarial&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Asignación de 25 000 millones de euros anuales para un Plan de Bienestar Social y Modernización Económica que incluirá una renta garantizada, la mejora salarial &lt;br&gt;y la reversión de los recortes sufridos desde 2010</t>
+    <t>Asignación de 25 000 millones de euros anuales para un Plan de Bienestar Social y Modernización Económica que incluirá una renta garantizada, la mejora salarial y la reversión de los recortes sufridos desde 2010</t>
   </si>
   <si>
     <t>&lt;p&gt;Aprobaremos un Plan de Bienestar Social y Modernización Económica, destinado, por una parte, a políticas sociales que refuercen el Estado de bienestar y los servicios públicos relacionados con la atención a las personas, y, por otra, a inversiones públicas que impulsen la creación de empleo y una verdadera transformación de nuestra economía. Este plan estará dotado con un incremento presupuestario de 25 000 millones de euros cada año durante toda la legislatura. Con ello, aumentaremos en un punto el porcentaje de gasto del PIB, y convergeremos con Europa en vez de alejarnos más, como supondría la reducción en cuatro puntos porcentuales que propone el Partido Popular.&lt;/p&gt;</t>
@@ -655,7 +655,7 @@
     <t>&lt;p&gt;Pondremos en marcha medidas complementarias para atender situaciones de urgencia social: desahucios, gastos de acceso y mantenimiento en la vivienda, pobreza energética, gastos necesarios para mantener una vivienda en condiciones de dignidad, colectivos en situación de riesgo de pobreza, etcétera.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Reversión de los recortes en la financiación de la sanidad, la educación y el cuidado de las personas, &lt;br&gt;de forma que en marzo de 2018 se recuperen los niveles anteriores a la crisis</t>
+    <t>Reversión de los recortes en la financiación de la sanidad, la educación y el cuidado de las personas, de forma que en marzo de 2018 se recuperen los niveles anteriores a la crisis</t>
   </si>
   <si>
     <t>&lt;p&gt;Revertiremos los recortes en la financiación de la sanidad, la educación y el cuidado de las personas, de forma que en los dos primeros años de legislatura se recuperen los niveles anteriores a la crisis. A partir de ese momento, incrementaremos el gasto por habitante, para lo que impulsaremos un proceso de convergencia que reduzca un 10 % la diferencia en gasto real por habitante con la media de la UE-15, con el objetivo de fortalecer y expandir nuestro Estado de bienestar.&lt;/p&gt;</t>
@@ -766,7 +766,7 @@
     <t>&lt;p&gt;Iniciaremos una estrategia estatal orientada a incidir en la innovación dentro del ámbito de los medicamentos, guiada por los criterios de salvaguarda del derecho a la salud y la cobertura universal de pacientes y enfermedades. &lt;/p&gt;&lt;p&gt;Trabajaremos para implementar mecanismos que garanticen precios justos para las patentes registradas por laboratorios que reciben financiación pública a través del apoyo fiscal a la I+D+i. Buscaremos vías de acuerdo con los laboratorios para poner fin a la especulación de los precios de los medicamentos en el mercado mundial.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Las TIC al servicio de la salud: creación de una plataforma digital estatal &lt;br&gt;de acceso a las historias clínicas</t>
+    <t>Las TIC al servicio de la salud: creación de una plataforma digital estatal de acceso a las historias clínicas</t>
   </si>
   <si>
     <t>&lt;p&gt;A propuesta del Consejo Interterritorial del Sistema Nacional de Salud, dinamizaremos la plataforma digital que facilita el acceso a las historias clínicas de los pacientes a cualquier usuario autorizado del sistema sanitario. Gracias a las tecnologías de la información y de la comunicación (TIC), el acceso a las historias clínicas constituirá una garantía para la salud de los pacientes y un mecanismo de ahorro para el sistema, pues evitará la duplicación de pruebas innecesarias.&lt;/p&gt;</t>
@@ -1381,7 +1381,7 @@
     <t>Red de Destinos Patrimoniales</t>
   </si>
   <si>
-    <t>&lt;p&gt;Impulsaremos los valores de la cultura y del patrimonio, material e inmaterial, con la creación de una Red de Destinos Patrimoniales que reúna todos los recursos españoles incluidos en la Lista del Patrimonio Mundial de la Unesco.&lt;/p&gt;&lt;p&gt;Asimismo, desarrollaremos medidas encaminadas a la protección activa y pasiva de los bienes patrimoniales, culturales y ambientales, para lo que estableceremos planes de uso y gestión de dichos bienes acordes con las exigencias derivadas de su preservación.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p"&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;p"&gt;Democracia, transparencia &lt;br&gt;y lucha contra la corrupción&lt;/p&gt;</t>
+    <t>&lt;p&gt;Impulsaremos los valores de la cultura y del patrimonio, material e inmaterial, con la creación de una Red de Destinos Patrimoniales que reúna todos los recursos españoles incluidos en la Lista del Patrimonio Mundial de la Unesco.&lt;/p&gt;&lt;p&gt;Asimismo, desarrollaremos medidas encaminadas a la protección activa y pasiva de los bienes patrimoniales, culturales y ambientales, para lo que estableceremos planes de uso y gestión de dichos bienes acordes con las exigencias derivadas de su preservación.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Democracia, transparencia &lt;br&gt;y lucha contra la corrupción&lt;/p&gt;</t>
   </si>
   <si>
     <t>Democracia Política</t>
@@ -1876,10 +1876,10 @@
     <t>&lt;p&gt;Crearemos una Oficina de la Emigración que tendrá como objetivos: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Centralizar los organismos y recursos existentes en una única entidad, de forma que haya una coordinación de los diferentes programas de vinculación, retorno y ayuda a las personas emigradas o que desean emigrar. &lt;/li&gt;&lt;li&gt;Establecer una línea de trabajo en la que estén implicados los diferentes agentes en España y en el extranjero. &lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Además, la Oficina de la Emigración tendrá su sede en todas las provincias españolas. Estas oficinas ofrecerán apoyo, orientación e información sobre el país de llegada para que los emigrantes puedan hacer valer sus derechos laborales y sociales y para favorecer una mejor integración. &lt;/p&gt;</t>
   </si>
   <si>
-    <t>Normativa para la enseñanza de la lengua</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;y la cultura españolas en el extranjero&lt;p&gt;Elaboraremos una normativa para la enseñanza de la lengua y la cultura españolas en el extranjero que consolide lazos sociales y culturales de los descendientes de emigrados españoles. La normativa se pondría en marcha mediante el siguiente plan de acción:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Realización de un estudio de la emigración infantil con el fin de conocer su realidad social y demográfica. &lt;/li&gt;&lt;li&gt;Desarrollo de un estudio por continentes acerca de las Secciones Internacionales, las Aulas de Lengua y Cultura Españolas o los centros de titularidad española o mixta ya existentes que permita el mantenimiento, el refuerzo y la apertura de nuevas aulas allí donde haya al menos doce solicitudes. &lt;/li&gt;&lt;li&gt;Garantía de una enseñanza presencial de al menos tres horas semanales que englobe una enseñanza integral de la lengua y la cultura españolas. &lt;/li&gt;&lt;li&gt;Desarrollo de sistemas de atención a distancia allí donde no se pueda abrir un aula por motivos demográficos, geográficos o políticos que impidan la correcta atención del alumnado o donde no se puedan garantizar condiciones laborales dignas para el profesorado. &lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Normativa para la enseñanza de la lengua y la cultura españolas en el extranjero</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Elaboraremos una normativa para la enseñanza de la lengua y la cultura españolas en el extranjero que consolide lazos sociales y culturales de los descendientes de emigrados españoles. La normativa se pondría en marcha mediante el siguiente plan de acción:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Realización de un estudio de la emigración infantil con el fin de conocer su realidad social y demográfica. &lt;/li&gt;&lt;li&gt;Desarrollo de un estudio por continentes acerca de las Secciones Internacionales, las Aulas de Lengua y Cultura Españolas o los centros de titularidad española o mixta ya existentes que permita el mantenimiento, el refuerzo y la apertura de nuevas aulas allí donde haya al menos doce solicitudes. &lt;/li&gt;&lt;li&gt;Garantía de una enseñanza presencial de al menos tres horas semanales que englobe una enseñanza integral de la lengua y la cultura españolas. &lt;/li&gt;&lt;li&gt;Desarrollo de sistemas de atención a distancia allí donde no se pueda abrir un aula por motivos demográficos, geográficos o políticos que impidan la correcta atención del alumnado o donde no se puedan garantizar condiciones laborales dignas para el profesorado. &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Desarrollo de medidas de garantía de pensiones dignas para los españoles emigrantes y retornados</t>
@@ -1900,10 +1900,10 @@
     <t>&lt;ul&gt;&lt;li&gt;El acceso al censo electoral se realizará a través del padrón municipal, sin requisitos adicionales.&lt;/li&gt;&lt;li&gt;Regularemos el derecho de sufragio mediante una reforma de la Ley Orgánica del Régimen Electoral General, y no por medio de tratados internacionales bilaterales. Reconoceremos el sufragio pasivo a todos los residentes extranjeros estables, no solo a los ciudadanos de la Unión Europea. &lt;/li&gt;&lt;li&gt;Reduciremos de manera sustancial los plazos de residencia exigidos para acceder a estos derechos. &lt;/li&gt;&lt;li&gt;Suprimiremos la prohibición de crear partidos políticos por parte de extranjeros, como se recoge en la Ley Orgánica 6 / 2002, de 27 de junio, de partidos políticos.&lt;/li&gt;&lt;li&gt;Estudiaremos la viabilidad de incorporar en el marco constitucional vigente la participación de la población extranjera en las elecciones autonómicas y en los referéndums. &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Eliminación del test de nacionalidad y reducciones</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;en los plazos para obtener la nacionalidad&lt;ul&gt;&lt;li&gt;Eliminaremos el test de nacionalidad española, requisito en la actualidad para poder obtener la nacionalidad española.&lt;/li&gt;&lt;li&gt;Acortaremos los plazos requeridos para adquirir la nacionalidad por residencia: cinco años de plazo general, tres años para refugiados, y un año para la población originaria de países con los que España mantiene históricamente una buena relación. &lt;/li&gt;&lt;li&gt;Suprimiremos las trabas burocráticas y requisitos discrecionales en el procedimiento. Eliminaremos la exigencia general de renuncia a la nacionalidad de origen para adquirir la española sin necesidad de tratados de doble nacionalidad, al menos en determinados casos (como, por ejemplo, el de la población refugiada).&lt;/li&gt;&lt;li&gt;Otorgaremos mayor relevancia al criterio del ius soli (derecho de lugar) en la atribución de la nacionalidad de origen. &lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Eliminación del test de nacionalidad y reducciones en los plazos para obtener la nacionalidad</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eliminaremos el test de nacionalidad española, requisito en la actualidad para poder obtener la nacionalidad española.&lt;/li&gt;&lt;li&gt;Acortaremos los plazos requeridos para adquirir la nacionalidad por residencia: cinco años de plazo general, tres años para refugiados, y un año para la población originaria de países con los que España mantiene históricamente una buena relación. &lt;/li&gt;&lt;li&gt;Suprimiremos las trabas burocráticas y requisitos discrecionales en el procedimiento. Eliminaremos la exigencia general de renuncia a la nacionalidad de origen para adquirir la española sin necesidad de tratados de doble nacionalidad, al menos en determinados casos (como, por ejemplo, el de la población refugiada).&lt;/li&gt;&lt;li&gt;Otorgaremos mayor relevancia al criterio del ius soli (derecho de lugar) en la atribución de la nacionalidad de origen. &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Creación de la Secretaría de Estado de Políticas Migratorias</t>
@@ -1930,22 +1930,22 @@
     <t>&lt;ul&gt;&lt;li&gt;Cerraremos los CIE, pues constituyen una anomalía del sistema democrático.&lt;/li&gt;&lt;li&gt;Desarrollaremos mecanismos de control adecuados para evitar que se produzcan situaciones de discriminación por motivos étnicos o de origen ante los diferentes operadores jurídicos. &lt;/li&gt;&lt;li&gt;Erradicaremos los controles de identidad policiales en los que se tenga en cuenta el perfil étnico y los vuelos colectivos de deportación. &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Garantía del derecho de asilo:</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;vías legales de acceso, sistema común de asilo &lt;br&gt;y programas dignos de reasentamiento&lt;p&gt;Promoveremos la adopción de un sistema común de asilo real y eficaz en el ámbito europeo que ponga fin a la falta de homogeneidad en la protección internacional de los refugiados en los distintos países miembros, así como la creación de una Agencia Europea de Salvamento. &lt;/p&gt;&lt;p&gt;Articularemos canales de entrada seguros y legales al recuperar la posibilidad de solicitar asilo diplomático en embajadas y consulados españoles de terceros países y con la concesión de visados humanitarios, la eliminación del visado de tránsito para quienes huyen de países en conflicto y la agilización de los procesos de reunificación familiar. Además, crearemos programas de reasentamiento dignos que aseguren una solución duradera y un compromiso de España en función de su población y de sus recursos. &lt;/p&gt;&lt;p&gt;Aprobaremos, de manera urgente, el reglamento de la Ley de Asilo, y revisaremos el sistema de examen y admisión a trámite de las solicitudes de asilo, especialmente en aquellas presentadas por motivos de orientación sexual o identidad de género, trata o cualquier otro motivo relacionado con el género (violencia, matrimonios forzados, mutilación genital, etcétera). &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Restablecimiento de la legalidad de los pasos fronterizos: respeto a los derechos humanos</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;en la frontera sur&lt;p&gt;Pondremos fin de forma inmediata a las devoluciones ilegales de personas en las zonas fronterizas, que contravienen la legalidad internacional. Para ello, derogaremos los artículos correspondientes de la Ley Orgánica 4 / 2015, de 30 de marzo, de protección de la seguridad ciudadana. &lt;/p&gt;&lt;p&gt;Igualmente, pondremos fin a las vulneraciones de derechos humanos que se producen en la frontera sur. Para ello, eliminaremos los elementos lesivos colocados en los perímetros fronterizos de Ceuta y Melilla y promoveremos la adopción de un protocolo de actuación de los Cuerpos y Fuerzas de Seguridad del Estado en esta frontera sur. Además, revisaremos el tratado bilateral con Marruecos, a fin de garantizar el cumplimiento estricto del principio de no devolución. &lt;/p&gt;&lt;p&gt;Política exterior y cooperación internacional&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Aprobación de un marco jurídico internacional</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;para la reestructuración de la deuda soberana&lt;p&gt;Defenderemos la construcción, a medio plazo, de un sistema mundial de gobernanza económica y financiera más justo, eficaz, solidario y representativo del mundo multipolar en el que vivimos. &lt;/p&gt;&lt;p&gt;Con ese objetivo, el Gobierno de España promoverá, desde los organismos multilaterales en los que participa, la adopción de un marco jurídico internacional para los procesos de reestructuración de la deuda soberana basado en principios de préstamo responsable, en la línea de los trabajos del Comité Ad Hoc de la ONU. &lt;/p&gt;</t>
+    <t>Garantía del derecho de asilo: vías legales de acceso, sistema común de asilo y programas dignos de reasentamiento</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Promoveremos la adopción de un sistema común de asilo real y eficaz en el ámbito europeo que ponga fin a la falta de homogeneidad en la protección internacional de los refugiados en los distintos países miembros, así como la creación de una Agencia Europea de Salvamento. &lt;/p&gt;&lt;p&gt;Articularemos canales de entrada seguros y legales al recuperar la posibilidad de solicitar asilo diplomático en embajadas y consulados españoles de terceros países y con la concesión de visados humanitarios, la eliminación del visado de tránsito para quienes huyen de países en conflicto y la agilización de los procesos de reunificación familiar. Además, crearemos programas de reasentamiento dignos que aseguren una solución duradera y un compromiso de España en función de su población y de sus recursos. &lt;/p&gt;&lt;p&gt;Aprobaremos, de manera urgente, el reglamento de la Ley de Asilo, y revisaremos el sistema de examen y admisión a trámite de las solicitudes de asilo, especialmente en aquellas presentadas por motivos de orientación sexual o identidad de género, trata o cualquier otro motivo relacionado con el género (violencia, matrimonios forzados, mutilación genital, etcétera). &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Restablecimiento de la legalidad de los pasos fronterizos: respeto a los derechos humanos en la frontera sur</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Pondremos fin de forma inmediata a las devoluciones ilegales de personas en las zonas fronterizas, que contravienen la legalidad internacional. Para ello, derogaremos los artículos correspondientes de la Ley Orgánica 4 / 2015, de 30 de marzo, de protección de la seguridad ciudadana. &lt;/p&gt;&lt;p&gt;Igualmente, pondremos fin a las vulneraciones de derechos humanos que se producen en la frontera sur. Para ello, eliminaremos los elementos lesivos colocados en los perímetros fronterizos de Ceuta y Melilla y promoveremos la adopción de un protocolo de actuación de los Cuerpos y Fuerzas de Seguridad del Estado en esta frontera sur. Además, revisaremos el tratado bilateral con Marruecos, a fin de garantizar el cumplimiento estricto del principio de no devolución. &lt;/p&gt;&lt;p&gt;Política exterior y cooperación internacional&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Aprobación de un marco jurídico internacional para la reestructuración de la deuda soberana</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Defenderemos la construcción, a medio plazo, de un sistema mundial de gobernanza económica y financiera más justo, eficaz, solidario y representativo del mundo multipolar en el que vivimos. &lt;/p&gt;&lt;p&gt;Con ese objetivo, el Gobierno de España promoverá, desde los organismos multilaterales en los que participa, la adopción de un marco jurídico internacional para los procesos de reestructuración de la deuda soberana basado en principios de préstamo responsable, en la línea de los trabajos del Comité Ad Hoc de la ONU. &lt;/p&gt;</t>
   </si>
   <si>
     <t>Prohibición de los productos financieros altamente especulativos</t>
@@ -1954,22 +1954,22 @@
     <t>&lt;p&gt;Para la construcción de un verdadero sistema internacional de supervisión bancaria y financiera, más allá de los Acuerdos de Basilea III, promoveremos, desde los foros competentes, la prohibición de los productos financieros altamente especulativos, así como la promoción de formas de financiación alternativa o banca ética. &lt;/p&gt;</t>
   </si>
   <si>
-    <t>Reforma de los sistemas de votación del G-20</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;y del Fondo Monetario Internacional&lt;p&gt;Exigiremos, desde los foros multilaterales, la reforma de los sistemas de votación y rendición de cuentas del G-20 y del Fondo Monetario Internacional (FMI), con lo que se reforzará la participación de la sociedad civil organizada en estos organismos, que pasarán a ser más democráticos y transparentes y reflejerán la realidad de un mundo multipolar.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Contra la evasión fiscal:</t>
-  </si>
-  <si>
-    <t>«tasa Tobin» &lt;br&gt;e impuesto global sobre la riqueza&lt;p&gt;Instaremos a la creación de una agencia fiscal internacional, bajo el auspicio de la ONU, para luchar contra la elusión fiscal o la competición fiscal entre países, que tenga capacidad sancionadora y que obligue a las empresas multinacionales a pagar sus impuestos donde generan sus beneficios. Esa agencia tendrá entre sus objetivos:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;El estudio de la creación de un impuesto global sobre la riqueza que grave gradualmente los grandes patrimonios como garantía de los derechos sociales.&lt;/li&gt;&lt;li&gt;La adopción de un impuesto sobre las transacciones financieras.&lt;/li&gt;&lt;li&gt;La fijación de una definición universal y normativa vinculante para los paraísos fiscales. &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Establecimiento de una lista negra</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de paraísos fiscales&lt;p&gt;Promoveremos tanto al establecimiento, en el marco de la OCDE, de una verdadera lista negra de paraísos fiscales como la adopción de una estrategia integral de lucha contra ellos, que incluya sanciones económicas para los Estados que incumplan la normativa. &lt;/p&gt;&lt;p&gt;Asimismo, reforzaremos la acción contra el blanqueo de dinero mediante el apoyo a iniciativas de restitución de capitales irregularmente evadidos, especialmente en los países del Sur. &lt;/p&gt;</t>
+    <t>Reforma de los sistemas de votación del G-20 y del Fondo Monetario Internacional</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Exigiremos, desde los foros multilaterales, la reforma de los sistemas de votación y rendición de cuentas del G-20 y del Fondo Monetario Internacional (FMI), con lo que se reforzará la participación de la sociedad civil organizada en estos organismos, que pasarán a ser más democráticos y transparentes y reflejerán la realidad de un mundo multipolar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Contra la evasión fiscal: «tasa Tobin» e impuesto global sobre la riqueza</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Instaremos a la creación de una agencia fiscal internacional, bajo el auspicio de la ONU, para luchar contra la elusión fiscal o la competición fiscal entre países, que tenga capacidad sancionadora y que obligue a las empresas multinacionales a pagar sus impuestos donde generan sus beneficios. Esa agencia tendrá entre sus objetivos:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;El estudio de la creación de un impuesto global sobre la riqueza que grave gradualmente los grandes patrimonios como garantía de los derechos sociales.&lt;/li&gt;&lt;li&gt;La adopción de un impuesto sobre las transacciones financieras.&lt;/li&gt;&lt;li&gt;La fijación de una definición universal y normativa vinculante para los paraísos fiscales. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Establecimiento de una lista negra de paraísos fiscales</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Promoveremos tanto al establecimiento, en el marco de la OCDE, de una verdadera lista negra de paraísos fiscales como la adopción de una estrategia integral de lucha contra ellos, que incluya sanciones económicas para los Estados que incumplan la normativa. &lt;/p&gt;&lt;p&gt;Asimismo, reforzaremos la acción contra el blanqueo de dinero mediante el apoyo a iniciativas de restitución de capitales irregularmente evadidos, especialmente en los países del Sur. &lt;/p&gt;</t>
   </si>
   <si>
     <t>Oposición al TTIP</t>
@@ -1981,7 +1981,7 @@
     <t>Hacia la abolición del derecho de veto en el Consejo de Seguridad de la ONU</t>
   </si>
   <si>
-    <t>&lt;br&gt;en el Consejo de Seguridad de la ONU&lt;p&gt;Durante el mandato de España en el Consejo de Seguridad de la ONU (que expira a finales de 2016) plantearemos la propuesta de agilización de la reforma integral del Consejo de Seguridad de la ONU para hacerlo más democrático, transparente y representativo, con la intención de acabar con el derecho de veto y priorizar un mandato orientado a la defensa de los derechos humanos, la equidad de género, la protección de civiles, las dinámicas de diálogo y el liderazgo local en la gestión de crisis. &lt;/p&gt;&lt;p&gt;Mientras no se produzca esa reforma, promoveremos un compromiso formal de no utilizar el veto en lo relativo a cuestiones humanitarias (casos de genocidio, crímenes de guerra o de lesa humanidad), como primer paso hacia la eventual supresión de esta prerrogativa. &lt;/p&gt;</t>
+    <t>&lt;p&gt;Durante el mandato de España en el Consejo de Seguridad de la ONU (que expira a finales de 2016) plantearemos la propuesta de agilización de la reforma integral del Consejo de Seguridad de la ONU para hacerlo más democrático, transparente y representativo, con la intención de acabar con el derecho de veto y priorizar un mandato orientado a la defensa de los derechos humanos, la equidad de género, la protección de civiles, las dinámicas de diálogo y el liderazgo local en la gestión de crisis. &lt;/p&gt;&lt;p&gt;Mientras no se produzca esa reforma, promoveremos un compromiso formal de no utilizar el veto en lo relativo a cuestiones humanitarias (casos de genocidio, crímenes de guerra o de lesa humanidad), como primer paso hacia la eventual supresión de esta prerrogativa. &lt;/p&gt;</t>
   </si>
   <si>
     <t>Impulso de la elección de una mujer como próxima secretaria general de la ONU</t>
@@ -1990,10 +1990,10 @@
     <t>&lt;p&gt;Durante el mandato de España en el Consejo de Seguridad de la ONU también apoyaremos la elección de una mujer como próxima secretaria general de la ONU, que se elegirá en un proceso transparente basado en la meritocracia. &lt;/p&gt;&lt;p&gt;Además, apostaremos por que el Consejo sea coherente con su mandato de respeto a los derechos de las mujeres y la equidad de género, mediante la promoción de la participación de mujeres en posiciones de liderazgo en organismos multilaterales de la ONU y, asimismo, priorizando la asignación de recursos para apoyar los derechos de las mujeres en la política global en alianza con los movimientos de mujeres. &lt;/p&gt;</t>
   </si>
   <si>
-    <t>Sometimiento a consulta ciudadana</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de la participación de las Fuerzas Armadas &lt;br&gt;en operaciones militares internacionales&lt;p&gt;Promoveremos una agenda multidimensional que contribuya a construir unas relaciones más justas, pacíficas y seguras, y que impliquen una renuncia a la guerra como herramienta ofensiva de política exterior. &lt;/p&gt;&lt;p&gt;Desde esta perspectiva y con objeto de fortalecer nuestra democracia, impulsaremos consultas ciudadanas sobre la participación de nuestras Fuerzas Armadas en operaciones militares internacionales de calado. Esta participación será siempre conforme al derecho internacional y deberá contar con la autorización de la ONU. &lt;/p&gt;</t>
+    <t>Sometimiento a consulta ciudadana de la participación de las Fuerzas Armadas en operaciones militares internacionales</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Promoveremos una agenda multidimensional que contribuya a construir unas relaciones más justas, pacíficas y seguras, y que impliquen una renuncia a la guerra como herramienta ofensiva de política exterior. &lt;/p&gt;&lt;p&gt;Desde esta perspectiva y con objeto de fortalecer nuestra democracia, impulsaremos consultas ciudadanas sobre la participación de nuestras Fuerzas Armadas en operaciones militares internacionales de calado. Esta participación será siempre conforme al derecho internacional y deberá contar con la autorización de la ONU. &lt;/p&gt;</t>
   </si>
   <si>
     <t>Auditoría y revisión del convenio con Estados Unidos sobre la base militar permanente en Morón</t>
@@ -2014,10 +2014,10 @@
     <t>&lt;p&gt;Fijaremos como prioridad fortalecer las relaciones con una región clave para nuestro país como es Latinoamérica, por los lazos históricos, económicos y socioculturales que nos unen. Para ello proponemos:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Favorecer la intermigración con acuerdos bilaterales que protejan los derechos de los emigrantes españoles en América Latina y los latinoamericanos en España. &lt;/li&gt;&lt;li&gt;Reconocer e intensificar las relaciones bilaterales y de la Unión Europea con las nuevas realidades regionales de América Latina (como la Comunidad de Estados Latinoamericanos y Caribeños, CELAC, o la Unión de Naciones Suramericanas, UNASUR) para lo que fomentaremos la cooperación más allá de la integración comercial y favoreceremos especialmente los intercambios en educación, investigación, ciencia y economía cooperativa, social y solidaria.&lt;/li&gt;&lt;li&gt;Impulsar la promoción de los derechos humanos, especialmente en los actuales procesos populares de lucha contra la impunidad y la corrupción en Centroamérica.&lt;/li&gt;&lt;li&gt;Contribuir a la normalización progresiva de las relaciones políticas y comerciales con Cuba, tanto a nivel bilateral como multilateral, para revertir la posición común de la Unión Europea adoptada en 1996. &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Compromiso con la libre determinación del Sáhara Occidental y concesión de la nacionalidad española</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;a la población saharaui residente en España&lt;p&gt;Defendemos el derecho a la libre determinación del pueblo saharaui. Por ello, asumiremos un papel más activo en el Consejo de Seguridad de la ONU y exigiremos revisar el marco general del proceso negociador, para fortalecer el mandato de la mediación de la ONU y posibilitar que el Consejo de Seguridad sancione a aquellos que obstruyan el proceso político. Además, abogaremos para que la Misión de las Naciones Unidas para el Referéndum del Sáhara Occidental (MINURSO) contribuya a la supervisión del respeto y defensa de los derechos humanos y la organización de desplazamientos oficiales sobre el terreno, tanto en el Sáhara Occidental como en los campamentos de refugiados de Tinduf. &lt;/p&gt;&lt;p&gt;Asimismo, aumentaremos las partidas de ayuda humanitaria para los campamentos saharauis, apoyaremos programas de formación y movilidad de la población saharaui y favoreceremos el acceso a la nacionalidad española de los saharauis residentes en nuestro país, con los mismos derechos que otras personas en su situación. &lt;/p&gt;&lt;p&gt;Por último, abogaremos por el nombramiento de un Representante Especial de la Unión Europea para el Sáhara Occidental que pueda hacer un seguimiento regular de la resolución del conflicto a nivel comunitario.&lt;/p&gt;</t>
+    <t>Compromiso con la libre determinación del Sáhara Occidental y concesión de la nacionalidad española a la población saharaui residente en España</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Defendemos el derecho a la libre determinación del pueblo saharaui. Por ello, asumiremos un papel más activo en el Consejo de Seguridad de la ONU y exigiremos revisar el marco general del proceso negociador, para fortalecer el mandato de la mediación de la ONU y posibilitar que el Consejo de Seguridad sancione a aquellos que obstruyan el proceso político. Además, abogaremos para que la Misión de las Naciones Unidas para el Referéndum del Sáhara Occidental (MINURSO) contribuya a la supervisión del respeto y defensa de los derechos humanos y la organización de desplazamientos oficiales sobre el terreno, tanto en el Sáhara Occidental como en los campamentos de refugiados de Tinduf. &lt;/p&gt;&lt;p&gt;Asimismo, aumentaremos las partidas de ayuda humanitaria para los campamentos saharauis, apoyaremos programas de formación y movilidad de la población saharaui y favoreceremos el acceso a la nacionalidad española de los saharauis residentes en nuestro país, con los mismos derechos que otras personas en su situación. &lt;/p&gt;&lt;p&gt;Por último, abogaremos por el nombramiento de un Representante Especial de la Unión Europea para el Sáhara Occidental que pueda hacer un seguimiento regular de la resolución del conflicto a nivel comunitario.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Reconocimiento del Estado palestino</t>
@@ -2038,16 +2038,16 @@
     <t>&lt;p&gt;Con el objetivo de revertir la fuga de cerebros españoles a Estados Unidos, reforzaremos la cooperación científica, cultural y educativa con este país. Para ello, aumentaremos el presupuesto relativo a becas de ampliación de estudios y prácticas profesionales e investigación científica vinculadas a proyectos de españoles, y promoveremos incentivos que favorezcan el retorno de los investigadores españoles tras haber ampliado su formación en Estados Unidos.&lt;/p&gt;&lt;p&gt;Además, desarrollaremos el Plan Unidos, una iniciativa para establecer mayores vínculos culturales, educativos y económicos con la comunidad hispana de Estados Unidos, que supone casi un tercio de la población de este país. La red de centros del Instituto Cervantes contribuirá a reforzar su conexión latinoamericana al organizar e impulsar actividades culturales que recojan toda la riqueza de la lengua y la cultura en España y América. &lt;/p&gt;&lt;p&gt;También crearemos una red de empresas incubadoras y aceleradoras en Estados Unidos y en España que contribuya a la creación de proyectos empresariales viables e innovadores en ambos países, especialmente en el sector de la economía social y solidaria, para facilitar la entrada de las pymes españolas en el mercado norteamericano y su consiguiente beneficio. &lt;/p&gt;</t>
   </si>
   <si>
-    <t>Reducción de gastos suntuarios del servicio exterior</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;y más atención a emigrantes españoles&lt;p&gt;Desarrollaremos una reforma del servicio exterior con arreglo a los siguientes principios:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Modernización de los métodos de trabajo y de organización interna, revisión del concurso de acceso a la carrera diplomática y estudio del establecimiento de un cuarto turno, y mejora de las condiciones de trabajo de los funcionarios y contratados en España y en el exterior.&lt;/li&gt;&lt;li&gt;Racionalización de los recursos a través de la disminución de gastos suntuarios y la reasignación de los recursos suprimidos. Revisión de la política salarial para evitar las desigualdades y racionalización de la política de compra y alquileres de las sedes dependientes del Ministerio de Asuntos Exteriores y de Cooperación tanto en España como en el extranjero. &lt;/li&gt;&lt;li&gt;Refuerzo de los servicios de asistencia consular y, en general, de todos los de atención al ciudadano, especialmente los relativos a los residentes españoles en el extranjero. &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Transformación de la Marca España y del Instituto Cervantes para que sean reflejo de la diversidad</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;y plurinacionalidad de nuestro país&lt;p&gt;Desde la convicción de que la política exterior sigue unos principios generales básicos, pero al mismo tiempo debe ser un reflejo de la diversidad del Estado, y asimismo desde el convencimiento de que tiene que ser una política transparente y abierta a la participación de la sociedad civil, con mecanismos de control y rendición de cuentas, crearemos un Consejo Interterritorial de Política y Acción Exterior en el que participará la sociedad civil y que reforzará la coordinación interministerial. Del mismo modo, crearemos un consejo ciudadano que participará en la elaboración y supervisión de nuestra política exterior y del respeto y la defensa de los derechos humanos.&lt;/p&gt;&lt;p&gt;En consonancia con lo anterior, reformaremos y adecuaremos el Instituto Cervantes a la diversidad lingüística y cultural de España, y transformaremos la Marca España para que, desde una perspectiva integradora, represente la diversidad y la plurinacionalidad de nuestro país, así como los intereses de toda la ciudadanía. &lt;/p&gt;</t>
+    <t>Reducción de gastos suntuarios del servicio exterior y más atención a emigrantes españoles</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Desarrollaremos una reforma del servicio exterior con arreglo a los siguientes principios:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Modernización de los métodos de trabajo y de organización interna, revisión del concurso de acceso a la carrera diplomática y estudio del establecimiento de un cuarto turno, y mejora de las condiciones de trabajo de los funcionarios y contratados en España y en el exterior.&lt;/li&gt;&lt;li&gt;Racionalización de los recursos a través de la disminución de gastos suntuarios y la reasignación de los recursos suprimidos. Revisión de la política salarial para evitar las desigualdades y racionalización de la política de compra y alquileres de las sedes dependientes del Ministerio de Asuntos Exteriores y de Cooperación tanto en España como en el extranjero. &lt;/li&gt;&lt;li&gt;Refuerzo de los servicios de asistencia consular y, en general, de todos los de atención al ciudadano, especialmente los relativos a los residentes españoles en el extranjero. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Transformación de la Marca España y del Instituto Cervantes para que sean reflejo de la diversidad y plurinacionalidad de nuestro país</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Desde la convicción de que la política exterior sigue unos principios generales básicos, pero al mismo tiempo debe ser un reflejo de la diversidad del Estado, y asimismo desde el convencimiento de que tiene que ser una política transparente y abierta a la participación de la sociedad civil, con mecanismos de control y rendición de cuentas, crearemos un Consejo Interterritorial de Política y Acción Exterior en el que participará la sociedad civil y que reforzará la coordinación interministerial. Del mismo modo, crearemos un consejo ciudadano que participará en la elaboración y supervisión de nuestra política exterior y del respeto y la defensa de los derechos humanos.&lt;/p&gt;&lt;p&gt;En consonancia con lo anterior, reformaremos y adecuaremos el Instituto Cervantes a la diversidad lingüística y cultural de España, y transformaremos la Marca España para que, desde una perspectiva integradora, represente la diversidad y la plurinacionalidad de nuestro país, así como los intereses de toda la ciudadanía. &lt;/p&gt;</t>
   </si>
   <si>
     <t>Aprobación de un Pacto por la Justicia Global y de una Ley de Solidaridad y Cooperación Internacional</t>
@@ -2083,10 +2083,10 @@
     <t>&lt;p&gt;Proponemos la recuperación del patrimonio histórico-cultural para el disfrute público. La Iglesia católica se ha apropiado de una parte importante de nuestro patrimonio sin ningún tipo de contrapartida al Estado y mediante un registro privado e independiente del registro público. Por ello, atenderemos las reivindicaciones de diversos colectivos de la sociedad civil, como las relativas a la mezquita de Córdoba.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Regulación de aprovechamientos hidráulicos</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de las subcuencas de los ríos Genil, Fardes &lt;br&gt;y Guadiana Menor&lt;p&gt;Llevaremos a cabo las siguientes propuestas:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Derogación de los proyectos de trasvase del río Castril.&lt;/li&gt;&lt;li&gt;Regulación de aprovechamientos hidráulicos de las subcuencas de los ríos Genil, Fardes y Guadiana Menor.&lt;/li&gt;&lt;li&gt;Realización de un plan integral de saneamiento y restauración del río Genil entre Granada y Loja.&lt;/li&gt;&lt;li&gt;Mantenimiento de los siguientes embalses: El Portillo, San Clemente, Negratín, Francisco Abellán, Canales, Quéntar, Cubillas, Colomera y Bermejales.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Regulación de aprovechamientos hidráulicos de las subcuencas de los ríos Genil, Fardes y Guadiana Menor</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Llevaremos a cabo las siguientes propuestas:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Derogación de los proyectos de trasvase del río Castril.&lt;/li&gt;&lt;li&gt;Regulación de aprovechamientos hidráulicos de las subcuencas de los ríos Genil, Fardes y Guadiana Menor.&lt;/li&gt;&lt;li&gt;Realización de un plan integral de saneamiento y restauración del río Genil entre Granada y Loja.&lt;/li&gt;&lt;li&gt;Mantenimiento de los siguientes embalses: El Portillo, San Clemente, Negratín, Francisco Abellán, Canales, Quéntar, Cubillas, Colomera y Bermejales.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Descontaminación de terrenos anteriormente utilizados por la industria</t>
@@ -2095,22 +2095,22 @@
     <t>&lt;p&gt;Realizaremos las actuaciones necesarias para la retirada de los fosfoyesos y del cesio-137 procedente de las cenizas de Acerinox y demás residuos vertidos en la marisma del Rincón y en la de Mendaña, al igual que el resto de residuos vertidos en las contaminadas marismas del Pinar.&lt;/p&gt;&lt;p&gt;Además, procuraremos la máxima descontaminación de los terrenos ocupados por las industrias que han cerrado en la avenida Francisco Montenegro (Punta del Sebo), y los recuperaremos íntegramente para el uso y disfrute de la ciudadanía. &lt;/p&gt;&lt;p&gt;También impulsaremos la regeneración y restauración de los humedales de las marismas del río Tinto mediante un proyecto innovador a nivel mundial que servirá para proyectar una imagen verde, nueva y moderna.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Mejora y creación de nuevos tramos en la red</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de carreteras&lt;p&gt;Promoveremos la finalización de la autovía del Olivar y de la A-32 (Linares-Albacete) y la realización de un estudio de la variante N-322 que cruza la comarca de El Condado.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Construcción de una segunda presa en el pantano</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de la Concepción&lt;p&gt;Abogaremos por la construcción de una segunda presa en el pantano de la Concepción, pues es un proyecto que lleva muchos años considerándose imprescindible para toda la Costa del Sol occidental, ya que la capacidad de la actual (construida en 1971) es insuficiente para abastecer a la población. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Mejora de la red ferroviaria para la vertebración</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de Andalucía&lt;p&gt;Procuraremos una mejor dotación de infraestructuras ferroviarias, con carácter interprovincial e interregional, para reactivar la economía y para mejorar la movilidad y la convivencia de los andaluces y andaluzas:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Almería. Conexión Almería-Murcia: pasajeros y tren de alta velocidad (TAV) de mercancías. Conexión TAV con Granada. Desarrollo de una red de tren de Cercanías en la comarca del Poniente. &lt;/li&gt;&lt;li&gt;Cádiz. Electrificación de la línea ferroviaria Algeciras-Bobadilla para mejorar las conexiones del puerto y la ciudad.&lt;/li&gt;&lt;li&gt;Granada. Proyecto de ferrocarril que conecte Granada (por Motril) con Málaga y Almería. &lt;/li&gt;&lt;li&gt;Huelva. Mejora y ampliación de la conexión ferroviaria con Extremadura (la actual Huelva-Zafra), además de la mejora de los servicios de la línea Huelva-Sevilla. &lt;/li&gt;&lt;li&gt;Jaén. Reactivación y mejora de la red de tren de Cercanías, así como de la estación Linares-Baeza.&lt;/li&gt;&lt;li&gt;Málaga. Corredor ferroviario litoral desde Málaga a Algeciras, con extensión hasta Nerja. &lt;/li&gt;&lt;li&gt;Sevilla. Mejora de la red de tren de Cercanías; en particular, la conexión de Los Palacios con la línea Cádiz-Sevilla a la altura de Utrera.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Mejora y creación de nuevos tramos en la red de carreteras</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Promoveremos la finalización de la autovía del Olivar y de la A-32 (Linares-Albacete) y la realización de un estudio de la variante N-322 que cruza la comarca de El Condado.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Construcción de una segunda presa en el pantano de la Concepción</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Abogaremos por la construcción de una segunda presa en el pantano de la Concepción, pues es un proyecto que lleva muchos años considerándose imprescindible para toda la Costa del Sol occidental, ya que la capacidad de la actual (construida en 1971) es insuficiente para abastecer a la población. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Mejora de la red ferroviaria para la vertebración de Andalucía</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Procuraremos una mejor dotación de infraestructuras ferroviarias, con carácter interprovincial e interregional, para reactivar la economía y para mejorar la movilidad y la convivencia de los andaluces y andaluzas:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Almería. Conexión Almería-Murcia: pasajeros y tren de alta velocidad (TAV) de mercancías. Conexión TAV con Granada. Desarrollo de una red de tren de Cercanías en la comarca del Poniente. &lt;/li&gt;&lt;li&gt;Cádiz. Electrificación de la línea ferroviaria Algeciras-Bobadilla para mejorar las conexiones del puerto y la ciudad.&lt;/li&gt;&lt;li&gt;Granada. Proyecto de ferrocarril que conecte Granada (por Motril) con Málaga y Almería. &lt;/li&gt;&lt;li&gt;Huelva. Mejora y ampliación de la conexión ferroviaria con Extremadura (la actual Huelva-Zafra), además de la mejora de los servicios de la línea Huelva-Sevilla. &lt;/li&gt;&lt;li&gt;Jaén. Reactivación y mejora de la red de tren de Cercanías, así como de la estación Linares-Baeza.&lt;/li&gt;&lt;li&gt;Málaga. Corredor ferroviario litoral desde Málaga a Algeciras, con extensión hasta Nerja. &lt;/li&gt;&lt;li&gt;Sevilla. Mejora de la red de tren de Cercanías; en particular, la conexión de Los Palacios con la línea Cádiz-Sevilla a la altura de Utrera.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Plan integral de protección del olivar y su industria</t>
@@ -2125,10 +2125,10 @@
     <t>&lt;p&gt;Pondremos en marcha un plan para mejorar la actividad de la empresa de tratamiento de residuos REMESA con el objetivo de alcanzar la media europea en tasas de material reciclado y contribuir a conservar la biodiversidad, al mismo tiempo que se fomenta la creación de puestos de trabajo.&lt;/p&gt;&lt;p&gt;Aragón&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Reapertura de la línea ferroviaria Canfranc-Olorón</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;en el horizonte 2020&lt;p&gt;Restauraremos y reabriremos la línea ferroviaria entre Huesca y el sudoeste de Francia para facilitar el tránsito de mercancías y viajeros entre España y Francia, lo que conllevará una mejora competitiva y el desarrollo de Aragón como polo logístico.&lt;/p&gt;</t>
+    <t>Reapertura de la línea ferroviaria Canfranc-Olorón en el horizonte 2020</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Restauraremos y reabriremos la línea ferroviaria entre Huesca y el sudoeste de Francia para facilitar el tránsito de mercancías y viajeros entre España y Francia, lo que conllevará una mejora competitiva y el desarrollo de Aragón como polo logístico.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Paralización de las obras de recrecimiento del pantano de Yesa</t>
@@ -2137,10 +2137,10 @@
     <t>&lt;p&gt;Suspenderemos las obras de recrecimiento del pantano de Yesa en Aragón, tras haberse multiplicado por cinco el coste presupuestado debido a problemas geológicos no previstos inicialmente. Además, existe un riesgo de ruptura de la presa, y las obras tendrían unos costes medioambientales que no se habían considerado al principio, aparte del efecto sobre el patrimonio natural y urbano que el desarrollo de esta obra hidráulica supone.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Mejora del corredor ferroviario</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;Cantábrico-Mediterráneo&lt;p&gt;Impulsaremos una mejora de las comunicaciones entre el Cantábrico y el Mediterráneo mediante un plan de inversiones en las líneas ferroviarias del trazado Teruel-Zaragoza-Sagunto, para potenciar la capacidad logística de Aragón y las relaciones comerciales entre el norte y el este peninsular.&lt;/p&gt;&lt;p&gt;Asturies / aSTURIAS &lt;/p&gt;</t>
+    <t>Mejora del corredor ferroviario Cantábrico-Mediterráneo</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Impulsaremos una mejora de las comunicaciones entre el Cantábrico y el Mediterráneo mediante un plan de inversiones en las líneas ferroviarias del trazado Teruel-Zaragoza-Sagunto, para potenciar la capacidad logística de Aragón y las relaciones comerciales entre el norte y el este peninsular.&lt;/p&gt;&lt;p&gt;Asturies / aSTURIAS &lt;/p&gt;</t>
   </si>
   <si>
     <t>Fondos mineros para el desarrollo de Asturias</t>
@@ -2155,16 +2155,16 @@
     <t>&lt;p&gt;Promoveremos un cambio en la política de infraestructuras hacia una utilización inteligente de los recursos y una articulación ecuánime del territorio asturiano. Para ello, hemos fijado cuatro objetivos básicos en el plan de infraestructuras para la próxima legislatura:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mejora sustancial del servicio de tren de Cercanías para establecer un servicio de alta frecuencia que proporcione a Asturias la fluidez necesaria en los desplazamientos.&lt;/li&gt;&lt;li&gt;Finalización de los tramos pendientes en la autovía de La Espina.&lt;/li&gt;&lt;li&gt;Eliminación del peaje del Huerna, con el fin de proporcionar a Asturias una entrada directa sin sobrecostes que impidan el desarrollo económico del territorio.&lt;/li&gt;&lt;li&gt;Protección de la ciudadanía frente a la contaminación acústica, visual y atmosférica que generan las grandes infraestructuras (autovías, autopistas y redes ferroviarias) a su paso por núcleos urbanos.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Impulso de un régimen específico balear basado</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;en el equilibrio económico y solidario entre &lt;br&gt;los distintos territorios del Estado español&lt;ul&gt;&lt;li&gt;Cumpliremos la normativa existente en el ordenamiento jurídico balear que explícitamente mejore la financiación de las Islas Baleares.&lt;/li&gt;&lt;li&gt;Promoveremos la obtención del estatus de territorio especial para las Islas Baleares y la aplicación de la normativa específica de la Unión Europea para estos supuestos.&lt;/li&gt;&lt;li&gt;Elaboraremos un programa de inversiones estatales y en las Islas Baleares.&lt;/li&gt;&lt;li&gt;Diseñaremos un régimen económico específico para lasIslas Baleares que atienda la compensación interterritorial.&lt;/li&gt;&lt;li&gt;Crearemos un instrumento de política económica que otorgue validez objetiva y compensadora a determinados sectores, para garantizar el desarrollo económico, laboral y social de nuestro territorio.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Declaración de interés público de las conexiones interislas y peninsulares para Islas Baleares</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;y las islas Canarias&lt;p&gt;A partir de la declaración de interés público, se tasarán precios reducidos en los vuelos interislas y peninsulares para los residentes en las islas.&lt;/p&gt;&lt;p&gt;Canarias&lt;/p&gt;</t>
+    <t>Impulso de un régimen específico balear basado en el equilibrio económico y solidario entre los distintos territorios del Estado español</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Cumpliremos la normativa existente en el ordenamiento jurídico balear que explícitamente mejore la financiación de las Islas Baleares.&lt;/li&gt;&lt;li&gt;Promoveremos la obtención del estatus de territorio especial para las Islas Baleares y la aplicación de la normativa específica de la Unión Europea para estos supuestos.&lt;/li&gt;&lt;li&gt;Elaboraremos un programa de inversiones estatales y en las Islas Baleares.&lt;/li&gt;&lt;li&gt;Diseñaremos un régimen económico específico para lasIslas Baleares que atienda la compensación interterritorial.&lt;/li&gt;&lt;li&gt;Crearemos un instrumento de política económica que otorgue validez objetiva y compensadora a determinados sectores, para garantizar el desarrollo económico, laboral y social de nuestro territorio.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Declaración de interés público de las conexiones interislas y peninsulares para Islas Baleares y las islas Canarias</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A partir de la declaración de interés público, se tasarán precios reducidos en los vuelos interislas y peninsulares para los residentes en las islas.&lt;/p&gt;&lt;p&gt;Canarias&lt;/p&gt;</t>
   </si>
   <si>
     <t>Reconocimiento de Canarias como Región Ultraperiférica (RUP) en la Constitución española</t>
@@ -2191,10 +2191,10 @@
     <t>&lt;p&gt;En función de los riesgos medioambientales y sanitarios, y de sus consecuencias para el modo de vida rural, suspenderemos los permisos concedidos para la actividad de fracking en Cantabria. Esto afecta a los siguientes proyectos: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Luena, cuya incidencia recae sobre los valles de Besaya, Pas, Pisueña, Miera y Asón, y sobre una parte de Burgos. &lt;/li&gt;&lt;li&gt;Bezana-Bigüenzo, que afecta a todo el sur de Cantabria: Campoo, Valdeprado y Valderredible, así como a una parte de Palencia y Burgos.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Plan de reactivación económica para las comarcas</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;del Besaya y de Reinosa &lt;p&gt;Promoveremos un plan de reindustrialización sostenible en las comarcas del Besaya y de Reinosa, en las que el desmantelamiento de la industria ha tenido efectos significativamente negativos sobre la actividad y el empleo. Las principales líneas de actuación de este plan serán:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;La puesta en marcha de ayudas para la modernización de industrias en riesgo de deslocalización, mediante la compra de maquinaria y patentes y la transformación de procesos productivos que permitan incrementar la productividad y la competitividad. &lt;/li&gt;&lt;li&gt;El asesoramiento en la búsqueda de nuevos mercados, la internacionalización de las empresas, el aprovechamiento de cadenas globales de valor y el fomento de las exportaciones de bienes y servicios.&lt;/li&gt;&lt;li&gt;La concesión de incentivos para el incremento de la eficiencia energética y la reducción de emisiones y residuos procedentes del proceso productivo.&lt;/li&gt;&lt;li&gt;El fomento del desarrollo de nuevo suelo industrial y readaptación del ya existente. &lt;/li&gt;&lt;li&gt;La concesión de incentivos para atraer nuevas empresas, inversión extranjera directa y participación en sociedades mixtas. &lt;/li&gt;&lt;li&gt;La mejora de las infraestructuras viales para reducir el coste del transporte de mercancías.&lt;/li&gt;&lt;li&gt;La implementación de un plan de ayudas para atraer el talento y la formación continua de los trabajadores. &lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Plan de reactivación económica para las comarcas del Besaya y de Reinosa </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Promoveremos un plan de reindustrialización sostenible en las comarcas del Besaya y de Reinosa, en las que el desmantelamiento de la industria ha tenido efectos significativamente negativos sobre la actividad y el empleo. Las principales líneas de actuación de este plan serán:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;La puesta en marcha de ayudas para la modernización de industrias en riesgo de deslocalización, mediante la compra de maquinaria y patentes y la transformación de procesos productivos que permitan incrementar la productividad y la competitividad. &lt;/li&gt;&lt;li&gt;El asesoramiento en la búsqueda de nuevos mercados, la internacionalización de las empresas, el aprovechamiento de cadenas globales de valor y el fomento de las exportaciones de bienes y servicios.&lt;/li&gt;&lt;li&gt;La concesión de incentivos para el incremento de la eficiencia energética y la reducción de emisiones y residuos procedentes del proceso productivo.&lt;/li&gt;&lt;li&gt;El fomento del desarrollo de nuevo suelo industrial y readaptación del ya existente. &lt;/li&gt;&lt;li&gt;La concesión de incentivos para atraer nuevas empresas, inversión extranjera directa y participación en sociedades mixtas. &lt;/li&gt;&lt;li&gt;La mejora de las infraestructuras viales para reducir el coste del transporte de mercancías.&lt;/li&gt;&lt;li&gt;La implementación de un plan de ayudas para atraer el talento y la formación continua de los trabajadores. &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Paralización completa del almacén temporal centralizado de Villar de Cañas</t>
@@ -2221,10 +2221,10 @@
     <t>&lt;p&gt;Castilla y León es una comunidad autónoma muy extensa con importantes carencias en lo relativo a las comunicaciones entre sus provincias, comarcas y pueblos, por lo que estudiaremos los accesos y conexiones para mejorar la movilidad y accesibilidad desde esta comunidad hacia otras comunidades autónomas, así como los desplazamientos internos entre las diferentes provincias de la comunidad castellanoleonesa.&lt;/p&gt;&lt;p&gt;Las medidas que pondremos en marcha obedecerán a los siguientes objetivos:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Potenciar el tren convencional y de Cercanías. &lt;/li&gt;&lt;li&gt;Favorecer el transporte de mercancías por ferrocarril. España es uno de los países que tiene unos porcentajes más bajos de Europa en este tipo de transporte.&lt;/li&gt;&lt;li&gt;Reabrir el tramo entre Madrid-Aranda de Duero y Burgos.&lt;/li&gt;&lt;li&gt;Reabrir el tramo de la Vía de la Plata (Zamora-Salamanca-Plasencia) y la continuación hacia Asturias, por Benavente; se valorará un tramo nuevo y directo desde Benavente hacia León. &lt;/li&gt;&lt;li&gt;Retomar el proyecto de la línea Madrid-Plasencia, el conocido como el «tren de la cereza». &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Ampliar y mejorar el sistema de Cercanías</t>
-  </si>
-  <si>
-    <t>(Rodalies) &lt;br&gt;de la región metropolitana de Barcelona&lt;p&gt;Incrementaremos las frecuencias, mejoraremos la calidad del servicio y promoveremos la implementación de trenes semidirectos. &lt;/p&gt;</t>
+    <t>Ampliar y mejorar el sistema de Cercanías (Rodalies) de la región metropolitana de Barcelona</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Incrementaremos las frecuencias, mejoraremos la calidad del servicio y promoveremos la implementación de trenes semidirectos. &lt;/p&gt;</t>
   </si>
   <si>
     <t>Cumplimiento del Estatuto de Autonomía de Cataluña en relación con las inversiones en infraestructuras</t>
@@ -2233,10 +2233,10 @@
     <t>&lt;p&gt;Consideramos que es imprescindible dar cumplimiento, de manera retroactiva, a la disposición adicional tercera del Estatuto, referente a las inversiones estatales en las infraestructuras catalanas.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Mejora de la red ferroviaria en las comarcas</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de montaña &lt;p&gt;Ampliaremos y mejoraremos los tramos que unen zonas urbanas, rurales y periféricas en algunos puntos clave del territorio catalán, para de este modo mejorar también la conexión comercial y los flujos de movilidad.&lt;/p&gt;</t>
+    <t>Mejora de la red ferroviaria en las comarcas de montaña </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ampliaremos y mejoraremos los tramos que unen zonas urbanas, rurales y periféricas en algunos puntos clave del territorio catalán, para de este modo mejorar también la conexión comercial y los flujos de movilidad.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Autovía Lleida-Pirineus</t>
@@ -2263,16 +2263,16 @@
     <t>&lt;p&gt;Promoveremos la limpieza de lodos y el saneamiento de la ría del Burgo tras el abandono que ha sufrido por parte de las diferentes administraciones, para hacer de la ría un lugar acorde con la excelente calidad del marisco gallego.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Recuperación de la ría de Pontevedra</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;para la ciudadanía&lt;p&gt;Abogaremos por la derogación del artículo segundo de la Ley de Protección y Uso Sostenible del Litoral, que contempla la posibilidad de prorrogar las actuales concesiones en terrenos de dominio público marítimo-terrestre hasta en 75 años más allá de las fechas de caducidad fijadas en las adjudicaciones. Este artículo facilitaría la permanencia de instalaciones como el complejo industrial de Ence-Elnosa en el dominio marítimo-terrestre en la ría de Pontevedra.&lt;/p&gt;&lt;p&gt;Comunidad de madrid&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Dotar de más agua (y de mejor calidad) al río Tajo</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;a su paso por Aranjuez &lt;p&gt;Para ello, promoveremos: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;La revisión del Plan Hidrológico de la demarcación hidrográfica del Tajo correspondiente al proceso de planificación 2015-2021, para comprobar si se adapta a la normativa europea.&lt;/li&gt;&lt;li&gt;La coordinación con plataformas de la sociedad civil que puedan ampliar la información y las demandas (como, por ejemplo, Ecologistas en Acción, la Red Ciudadana por una Nueva Cultura del Agua en el Tajo y sus ríos o la Plataforma en Defensa de los ríos Tajo y Alberche). &lt;/li&gt;&lt;li&gt;El análisis de las posibles consecuencias del rechazo a la aprobación del Plan Hidrológico. &lt;/li&gt;&lt;li&gt;El establecimiento de medidas de contención de dichas consecuencias. &lt;/li&gt;&lt;li&gt;El rechazo de la aprobación del Plan Hidrológico, prevista para diciembre de 2015, en caso de que el plan no se adapte a la normativa europea. &lt;/li&gt;&lt;li&gt;La propuesta de elaboración de un nuevo plan que recoja un caudal mínimo ecológico de al menos 11,74 metros cúbicos por segundo y aplique la nueva política europea del agua. &lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Recuperación de la ría de Pontevedra para la ciudadanía</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Abogaremos por la derogación del artículo segundo de la Ley de Protección y Uso Sostenible del Litoral, que contempla la posibilidad de prorrogar las actuales concesiones en terrenos de dominio público marítimo-terrestre hasta en 75 años más allá de las fechas de caducidad fijadas en las adjudicaciones. Este artículo facilitaría la permanencia de instalaciones como el complejo industrial de Ence-Elnosa en el dominio marítimo-terrestre en la ría de Pontevedra.&lt;/p&gt;&lt;p&gt;Comunidad de madrid&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Dotar de más agua (y de mejor calidad) al río Tajo a su paso por Aranjuez </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para ello, promoveremos: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;La revisión del Plan Hidrológico de la demarcación hidrográfica del Tajo correspondiente al proceso de planificación 2015-2021, para comprobar si se adapta a la normativa europea.&lt;/li&gt;&lt;li&gt;La coordinación con plataformas de la sociedad civil que puedan ampliar la información y las demandas (como, por ejemplo, Ecologistas en Acción, la Red Ciudadana por una Nueva Cultura del Agua en el Tajo y sus ríos o la Plataforma en Defensa de los ríos Tajo y Alberche). &lt;/li&gt;&lt;li&gt;El análisis de las posibles consecuencias del rechazo a la aprobación del Plan Hidrológico. &lt;/li&gt;&lt;li&gt;El establecimiento de medidas de contención de dichas consecuencias. &lt;/li&gt;&lt;li&gt;El rechazo de la aprobación del Plan Hidrológico, prevista para diciembre de 2015, en caso de que el plan no se adapte a la normativa europea. &lt;/li&gt;&lt;li&gt;La propuesta de elaboración de un nuevo plan que recoja un caudal mínimo ecológico de al menos 11,74 metros cúbicos por segundo y aplique la nueva política europea del agua. &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Resolución del proyecto de construcción de la línea de tren de Cercanías Móstoles-Navalcarnero</t>
@@ -2293,16 +2293,16 @@
     <t>&lt;p&gt;Aseguraremos el cumplimiento de las medidas de conservación y restauración de la cuenca hidrográfica del río Guadarrama (parque regional y espacio natural protegido), que comprende los términos municipales de El Álamo, Batres, Boadilla del Monte, Brunete, Colmenarejo, Galapagar, Majadahonda, Moraleja de Enmedio, Móstoles, Navalcarnero, Las Rozas, Serranillos del Valle, Sevilla la Nueva, Torrelodones, Valdemorillo, Villanueva de la Cañada, Villanueva del Pardillo y Villaviciosa de Odón. Para ello, llevaremos a cabo:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Un estudio de la situación actual de la cuenca del río. &lt;/li&gt;&lt;li&gt;Y una revisión del Plan de Gestión de la cuenca del río Guadarrama y de su cumplimiento hasta la fecha. &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Recuperación del proyecto para ampliar la línea C4 de tren de Cercanías hasta los municipios de Torrejón</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de la Calzada y Torrejón de Velasco&lt;p&gt;Retomaremos este proyecto de ampliación para:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Analizar el estado actual del Plan de Infraestructuras Ferroviarias de Cercanías para Madrid 2009-2015. &lt;/li&gt;&lt;li&gt;Realizar un estudio informativo y un presupuesto para la ampliación de la línea C4 de tren de Cercanías. &lt;/li&gt;&lt;li&gt;Definir y analizar las alternativas de trazado viables para construir la infraestructura ferroviaria. &lt;/li&gt;&lt;li&gt;Analizar la viabilidad y, en su caso, el emplazamiento más adecuado para la construcción de dos nuevas estaciones: una primera próxima al Hospital de Parla, y la segunda en las proximidades de las poblaciones de Torrejón de la Calzada y Torrejón de Velasco. Este análisis se realizará teniendo en cuenta la accesibilidad, la demanda, las conexiones con otros medios de transporte público y las facilidades de construcción. &lt;/li&gt;&lt;li&gt;Realizar un estudio específico de las condiciones de explotación y demanda de transporte. &lt;/li&gt;&lt;li&gt;Ampliar la línea C4 de tren de Cercanías, siempre que se haya demostrado su viabilidad técnica y económica.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Revisión del proyecto de soterramiento de las vías</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;del tren en el sur de Madrid&lt;p&gt;Revisaremos el proyecto de soterramiento de las vías del tren en el sur de Madrid que dividen en dos los municipios de Alcorcón, Fuenlabrada, Getafe, Leganés y Móstoles. Para ello, analizaremos el acuerdo de colaboración firmado en 2011 entre el Ministerio de Fomento y los ayuntamientos de dichos municipios, así como la viabilidad de los compromisos que competan al Ministerio y se incluyan en el acuerdo y, finalmente, las posibles alternativas y soluciones para cumplir dichos compromisos.&lt;/p&gt;&lt;p&gt;Región de murcia&lt;/p&gt;</t>
+    <t>Recuperación del proyecto para ampliar la línea C4 de tren de Cercanías hasta los municipios de Torrejón de la Calzada y Torrejón de Velasco</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Retomaremos este proyecto de ampliación para:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Analizar el estado actual del Plan de Infraestructuras Ferroviarias de Cercanías para Madrid 2009-2015. &lt;/li&gt;&lt;li&gt;Realizar un estudio informativo y un presupuesto para la ampliación de la línea C4 de tren de Cercanías. &lt;/li&gt;&lt;li&gt;Definir y analizar las alternativas de trazado viables para construir la infraestructura ferroviaria. &lt;/li&gt;&lt;li&gt;Analizar la viabilidad y, en su caso, el emplazamiento más adecuado para la construcción de dos nuevas estaciones: una primera próxima al Hospital de Parla, y la segunda en las proximidades de las poblaciones de Torrejón de la Calzada y Torrejón de Velasco. Este análisis se realizará teniendo en cuenta la accesibilidad, la demanda, las conexiones con otros medios de transporte público y las facilidades de construcción. &lt;/li&gt;&lt;li&gt;Realizar un estudio específico de las condiciones de explotación y demanda de transporte. &lt;/li&gt;&lt;li&gt;Ampliar la línea C4 de tren de Cercanías, siempre que se haya demostrado su viabilidad técnica y económica.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Revisión del proyecto de soterramiento de las vías del tren en el sur de Madrid</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Revisaremos el proyecto de soterramiento de las vías del tren en el sur de Madrid que dividen en dos los municipios de Alcorcón, Fuenlabrada, Getafe, Leganés y Móstoles. Para ello, analizaremos el acuerdo de colaboración firmado en 2011 entre el Ministerio de Fomento y los ayuntamientos de dichos municipios, así como la viabilidad de los compromisos que competan al Ministerio y se incluyan en el acuerdo y, finalmente, las posibles alternativas y soluciones para cumplir dichos compromisos.&lt;/p&gt;&lt;p&gt;Región de murcia&lt;/p&gt;</t>
   </si>
   <si>
     <t>Mejora de la red ferroviaria de la Región de Murcia</t>
@@ -2353,16 +2353,16 @@
     <t>&lt;p&gt;Convertiremos las ayudas de emergencia social en fondos o derechos inembargables y paralizaremos los embargos relativos a este tipo de ayudas que están en vigor.&lt;/p&gt;&lt;p&gt;comunitat valenciana / Comunidad valenciana&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Plan integral para mejorar las infraestructuras</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;de transporte y comunicaciones&lt;p&gt;Implementaremos un plan integral para mejorar las infraestructuras de transporte y comunicaciones en la Comunidad Valenciana que conlleve:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;La eliminación del peaje de la AP-7 y la mejora de los accesos.&lt;/li&gt;&lt;li&gt;La mejora de la red ferroviaria regional y de Cercanías.&lt;/li&gt;&lt;li&gt;La mejora de las infraestructuras de transporte del interior de la Comunidad Valenciana y de la vertebración con el resto del Estado, con Europa y con el Mediterráneo.&lt;/li&gt;&lt;li&gt;La revitalización de los puertos marítimos de Alicante y Castellón, para lo cual se priorizará la construcción de accesos ferroviarios.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Aumento de la financiación estatal en apoyo</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;del emprendimiento y las pymes&lt;p&gt;Aplicaremos un complemento de un 20 % con cargo a los Presupuestos Generales del Estado de los fondos destinados por la Comunidad Valenciana a las siguientes partidas:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Promoción de emprendedores.&lt;/li&gt;&lt;li&gt;Cooperativismo y economía social.&lt;/li&gt;&lt;li&gt;Planificación y previsión económica.&lt;/li&gt;&lt;li&gt;Política industrial.&lt;/li&gt;&lt;li&gt;Ordenación y promoción comercial.&lt;/li&gt;&lt;li&gt;Comercio exterior.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Plan integral para mejorar las infraestructuras de transporte y comunicaciones</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Implementaremos un plan integral para mejorar las infraestructuras de transporte y comunicaciones en la Comunidad Valenciana que conlleve:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;La eliminación del peaje de la AP-7 y la mejora de los accesos.&lt;/li&gt;&lt;li&gt;La mejora de la red ferroviaria regional y de Cercanías.&lt;/li&gt;&lt;li&gt;La mejora de las infraestructuras de transporte del interior de la Comunidad Valenciana y de la vertebración con el resto del Estado, con Europa y con el Mediterráneo.&lt;/li&gt;&lt;li&gt;La revitalización de los puertos marítimos de Alicante y Castellón, para lo cual se priorizará la construcción de accesos ferroviarios.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Aumento de la financiación estatal en apoyo del emprendimiento y las pymes</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aplicaremos un complemento de un 20 % con cargo a los Presupuestos Generales del Estado de los fondos destinados por la Comunidad Valenciana a las siguientes partidas:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Promoción de emprendedores.&lt;/li&gt;&lt;li&gt;Cooperativismo y economía social.&lt;/li&gt;&lt;li&gt;Planificación y previsión económica.&lt;/li&gt;&lt;li&gt;Política industrial.&lt;/li&gt;&lt;li&gt;Ordenación y promoción comercial.&lt;/li&gt;&lt;li&gt;Comercio exterior.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Apoyo a la agricultura, la ganadería y la pesca</t>
@@ -2507,8 +2507,8 @@
   </sheetPr>
   <dimension ref="A1:Z389"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A297" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C314" activeCellId="0" sqref="C314"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A204" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D212" activeCellId="0" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/data/programa.xlsx
+++ b/data/programa.xlsx
@@ -1693,7 +1693,7 @@
     <t>Derecho a decidir</t>
   </si>
   <si>
-    <t>&lt;p&gt;Abriremos un amplio debate ciudadano sobre el reconocimiento y las formas de ejercicio del derecho a decidir en el marco del debate acerca del cambio constitucional. Reconoceremos constitucionalmente la naturaleza plurinacional de España, como también aseguraremos el derecho de los gobiernos autonómicos a celebrar consultas a la ciudadanía sobre el encaje territorial del país. &lt;/p&gt;&lt;p&gt;Recuperaremos el respeto como fundamento básico de las relaciones entre los gobiernos y los parlamentos de todos los niveles territoriales del Estado. &lt;/p&gt;&lt;p&gt;Iniciaremos un proceso de cambio constitucional orientando a resolver, entre otros, los problemas de estructuración territorial del Estado y evaluaremos y debatiremos sobre las experiencias de Reino Unido y Canadá. &lt;/p&gt;&lt;p&gt;Es decir, promoveremos la convocatoria de un referéndum con garantías en Catalunya para que sus ciudadanos y ciudadanas puedan decidir el tipo de relación territorial que desean establecer con España.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Abriremos un amplio debate ciudadano sobre el reconocimiento y las formas de ejercicio del derecho a decidir en el marco del debate acerca del cambio constitucional. Reconoceremos constitucionalmente la naturaleza plurinacional de España, como también aseguraremos el derecho de los gobiernos autonómicos a celebrar consultas a la ciudadanía sobre el encaje territorial del país. &lt;/p&gt;&lt;p&gt;Recuperaremos el respeto como fundamento básico de las relaciones entre los gobiernos y los parlamentos de todos los niveles territoriales del Estado. &lt;/p&gt;&lt;p&gt;Iniciaremos un proceso de cambio constitucional orientando a resolver, entre otros, los problemas de estructuración territorial del Estado y evaluaremos y debatiremos sobre las experiencias de Reino Unido y Canadá. &lt;/p&gt;&lt;p&gt;Es decir, promoveremos la convocatoria de un referéndum con garantías en Catalunya para que sus ciudadanos y ciudadanas puedan decidir el tipo de relación territorial que desean establecer con el resto de España.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Reforma del Senado</t>

--- a/data/programa.xlsx
+++ b/data/programa.xlsx
@@ -1693,7 +1693,7 @@
     <t>Derecho a decidir</t>
   </si>
   <si>
-    <t>&lt;p&gt;Abriremos un amplio debate ciudadano sobre el reconocimiento y las formas de ejercicio del derecho a decidir en el marco del debate acerca del cambio constitucional. Reconoceremos constitucionalmente la naturaleza plurinacional de España, como también aseguraremos el derecho de los gobiernos autonómicos a celebrar consultas a la ciudadanía sobre el encaje territorial del país. &lt;/p&gt;&lt;p&gt;Recuperaremos el respeto como fundamento básico de las relaciones entre los gobiernos y los parlamentos de todos los niveles territoriales del Estado. &lt;/p&gt;&lt;p&gt;Iniciaremos un proceso de cambio constitucional orientando a resolver, entre otros, los problemas de estructuración territorial del Estado y evaluaremos y debatiremos sobre las experiencias de Reino Unido y Canadá. &lt;/p&gt;&lt;p&gt;Es decir, promoveremos la convocatoria de un referéndum con garantías en Catalunya para que sus ciudadanos y ciudadanas puedan decidir el tipo de relación territorial que desean establecer con el resto de España.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Abriremos un amplio debate ciudadano sobre el reconocimiento y las formas de ejercicio del derecho a decidir en el marco del debate acerca del cambio constitucional. Reconoceremos constitucionalmente la naturaleza plurinacional de España, como también aseguraremos el derecho de los gobiernos autonómicos a celebrar consultas a la ciudadanía sobre el encaje territorial del país. &lt;/p&gt;&lt;p&gt;Es decir, promover la convocatoria de un referéndum con garantías en Catalunya para que sus ciudadanos y ciudadanas puedan decidir el tipo de relación territorial que desean establecer con el resto de España.&lt;/p&gt;&lt;p&gt;Recuperaremos el respeto como fundamento básico de las relaciones entre los gobiernos y los parlamentos de todos los niveles territoriales del Estado. &lt;/p&gt;&lt;p&gt;Iniciaremos un proceso de cambio constitucional orientando a resolver, entre otros, los problemas de estructuración territorial del Estado y evaluaremos y debatiremos sobre las experiencias de Reino Unido y Canadá. &lt;/p&gt;</t>
   </si>
   <si>
     <t>Reforma del Senado</t>

--- a/data/programa.xlsx
+++ b/data/programa.xlsx
@@ -430,10 +430,10 @@
     <t>&lt;p&gt;Estableceremos cuotas a la Seguridad Social porcentuales y progresivas en función del rendimiento neto para los autónomos que facturen por encima del salario mínimo y un alta gratuita para aquellos que lo hagan por debajo del salario mínimo interprofesional. Estudiaremos la equiparación de las prestaciones del Régimen Especial de Trabajadores Autónomos (RETA) al Régimen General de la Seguridad Social. Posibilitaremos el pago trimestral, en lugar de mensual, de las cotizaciones y solo desde el inicio de la actividad; e informatizaremos y simplificaremos los trámites. Analizaremos, igualmente, la posibilidad de desarrollar un régimen de cotizaciones a tiempo parcial, de manera que se pueda estar empleado por cuenta propia a media jornada.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Incorporación de la voz de los autónomos en el diálogo social</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Incluiremos a los autónomos en las mesas de diálogo social, a través de las organizaciones que los representan, para que sus opiniones se tengan en cuenta en las decisiones de gran calado.&lt;/p&gt;</t>
+    <t>Incorporación de la voz de la economía social y de los autónomos en el diálogo social</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Incluiremos a los actores de la economía social y a los autónomos en las mesas de diálogo social, a través de las organizaciones que los representan, para que sus opiniones se tengan en cuenta en las decisiones de gran calado.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Estudio del desarrollo de la figura del autónomo de responsabilidad limitada</t>
@@ -4909,10 +4909,10 @@
       <c r="B69" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>140</v>
       </c>
       <c r="E69" s="4"/>

--- a/data/programa.xlsx
+++ b/data/programa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="797">
   <si>
     <t>id</t>
   </si>
@@ -199,7 +199,7 @@
     <t>Reparto de la renta agraria y adaptación de la normativa de los sectores agropecuario y pesquero</t>
   </si>
   <si>
-    <t>&lt;p&gt;Reformaremos el modelo de negociación y aplicaremos la Política Agraria Común (PAC) en España con el objetivo prioritario de mejorar tanto el reparto de la renta agraria como la promoción del interés público y ambiental.&lt;/p&gt;&lt;p&gt;Desarrollaremos iniciativas de creación y adaptación normativa dirigidas a articular un sector agropecuario y pesquero basado en criterios de diversificación, sostenibilidad, economía social y familiar. Además, orientaremos la producción extensiva hacia la apuesta estratégica de la soberanía alimentaria, y adoptaremos medidas para la eliminación gradual del uso de organismos modificados genéticamente en la agricultura y en la alimentación.&lt;/p&gt;&lt;p&gt;Promoveremos la adecuación e innovación normativa en el sector pesquero para cumplir los objetivos sociales y ambientales previstos (pero todavía incumplidos), con el fin de programar transiciones graduales entre las distintas artes pesqueras y mejorar el diseño de baremos y el reparto de cuotas.&lt;/p&gt;&lt;p&gt;Sociedad del conocimiento, I+D+i y políticas científicas&lt;/p&gt;</t>
+    <t>&lt;p&gt;Reformaremos el modelo de negociación y aplicaremos la Política Agraria Común (PAC) en España con el objetivo prioritario de mejorar tanto el reparto de la renta agraria como la promoción del interés público y ambiental.&lt;/p&gt;&lt;p&gt;Desarrollaremos iniciativas de creación y adaptación normativa dirigidas a articular un sector agropecuario y pesquero basado en criterios de diversificación, sostenibilidad, economía social y familiar. Además, orientaremos la producción extensiva hacia la apuesta estratégica de la soberanía alimentaria.&lt;/p&gt;&lt;p&gt;Promoveremos la adecuación e innovación normativa en el sector pesquero para cumplir los objetivos sociales y ambientales previstos (pero todavía incumplidos), con el fin de programar transiciones graduales entre las distintas artes pesqueras y mejorar el diseño de baremos y el reparto de cuotas.&lt;/p&gt;&lt;p&gt;Sociedad del conocimiento, I+D+i y políticas científicas&lt;/p&gt;</t>
   </si>
   <si>
     <t>Programa Nacional de Introducción a la Investigación</t>
@@ -1693,13 +1693,16 @@
     <t>Derecho a decidir</t>
   </si>
   <si>
-    <t>&lt;p&gt;Abriremos un amplio debate ciudadano sobre el reconocimiento y las formas de ejercicio del derecho a decidir en el marco del debate acerca del cambio constitucional. Reconoceremos constitucionalmente la naturaleza plurinacional de España, como también aseguraremos el derecho de los gobiernos autonómicos a celebrar consultas a la ciudadanía sobre el encaje territorial del país. &lt;/p&gt;&lt;p&gt;Es decir, promover la convocatoria de un referéndum con garantías en Catalunya para que sus ciudadanos y ciudadanas puedan decidir el tipo de relación territorial que desean establecer con el resto de España.&lt;/p&gt;&lt;p&gt;Recuperaremos el respeto como fundamento básico de las relaciones entre los gobiernos y los parlamentos de todos los niveles territoriales del Estado. &lt;/p&gt;&lt;p&gt;Iniciaremos un proceso de cambio constitucional orientando a resolver, entre otros, los problemas de estructuración territorial del Estado y evaluaremos y debatiremos sobre las experiencias de Reino Unido y Canadá. &lt;/p&gt;</t>
+    <t>&lt;p&gt;Abriremos un amplio debate ciudadano sobre el reconocimiento y las formas de ejercicio del derecho a decidir en el marco del debate acerca del cambio constitucional. Reconoceremos constitucionalmente la naturaleza plurinacional de España, como también aseguraremos el derecho de los gobiernos autonómicos a celebrar consultas a la ciudadanía sobre el encaje territorial del país. &lt;/p&gt;&lt;p&gt;Es decir, promoveremos la convocatoria de un referéndum
+ con garantías en Cataluña para que sus ciudadanos y ciudadanas
+puedan decidir el tipo de relación territorial que
+ desean establecer con el resto de España. &lt;/p&gt;&lt;p&gt;Recuperaremos el respeto como fundamento básico de las relaciones entre los gobiernos y los parlamentos de todos los niveles territoriales del Estado. &lt;/p&gt;&lt;p&gt;Iniciaremos un proceso de cambio constitucional orientando a resolver, entre otros, los problemas de estructuración territorial del Estado y evaluaremos y debatiremos sobre las experiencias de Reino Unido y Canadá. &lt;/p&gt;</t>
   </si>
   <si>
     <t>Reforma del Senado</t>
   </si>
   <si>
-    <t>&lt;p&gt;Transformaremos el Senado en una cámara de representación de derechos e intereses territoriales y eliminaremos una gran parte de las retribuciones de los senadores: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Conformaremos el Senado con representantes de los gobiernos regionales, intercambiables y con voto en bloque y reduciremos el número de representantes. &lt;/li&gt;&lt;li&gt;Las funciones del Senado serán:&lt;ul&gt;&lt;li&gt;Legislativa: participación en la aprobación de leyes que afecten a los intereses territoriales. &lt;/li&gt;&lt;li&gt;Participación en los Presupuestos Generales del Estado para fijar las partidas que se atribuyen a los distintos territorios de acuerdo con el sistema de financiación. &lt;/li&gt;&lt;li&gt;Nombramiento de los miembros de órganos del Estado e instituciones centrales, como los magistrados del Tribunal Constitucional o los vocales del Consejo General del Poder Judicial.&lt;/li&gt;&lt;li&gt;Como pieza clave en las relaciones verticales y horizontales de la distribución territorial del poder, desempeñará un papel importante en la relación con la Conferencia de Presidentes. &lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Transformaremos el Senado en una cámara de representación de derechos e intereses territoriales y eliminaremos una gran parte de las retribuciones de los senadores: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Conformaremos el Senado con representantes de los gobiernos regionales, intercambiables y con voto en bloque y reduciremos el número de representantes. &lt;/li&gt;&lt;li&gt;Las funciones del Senado serán:&lt;ul&gt;&lt;li&gt;Legislativa: participación en la aprobación de leyes que afecten a los intereses territoriales. &lt;/li&gt;&lt;li&gt;Participación en los Presupuestos Generales del Estado para fijar las partidas que se atribuyen a los distintos territorios de acuerdo con el sistema de financiación. &lt;/li&gt;&lt;li&gt;Nombramiento de los miembros de órganos del Estado e instituciones centrales, como los magistrados del Tribunal Constitucional.&lt;/li&gt;&lt;li&gt;Como pieza clave en las relaciones verticales y horizontales de la distribución territorial del poder, desempeñará un papel importante en la relación con la Conferencia de Presidentes. &lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Revisión del modelo de financiación</t>
@@ -2366,13 +2369,49 @@
   </si>
   <si>
     <t>&lt;p&gt;Promoveremos actuaciones orientadas a la preservación de los espacios naturales y para ello: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Paralizaremos o evitaremos actuaciones contra el medio ambiente, en particular las vinculadas al proyecto Castor. Respecto a este proyecto, desmantelaremos las infraestructuras existentes y exigiremos la depuración de responsabilidades.&lt;/li&gt;&lt;li&gt;Emprenderemos acciones que faciliten la declaración de la Albufera como reserva de la biosfera y los humedales de la comarca de La Safor como parque natural.&lt;/li&gt;&lt;li&gt;Implementaremos planes de acción orientados a la sostenibilidad medioambiental y socioeconómica en la Vega Baja, la Serranía Celtibérica, el área metropolitana de Valencia y L’Horta, para garantizar un marco sostenible de recursos hídricos en toda la Comunidad Valenciana.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Turismo sostenible</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Desarrollaremos un plan de sostenibilidad del turismo, mediante acuerdos concretos con los distintos actores y en un horizonte temporal de quince años, que establezca nuevas bases para el desarrollo de un nuevo modelo turístico para España y para cada una de las comunidades autónomas y municipios turísticos.&lt;/p&gt;&lt;p&gt;Estableceremos un nuevo marco regulador del turismo en relación con su impacto medioambiental, cultural y social mediante la creación de la etiqueta verde, impulsada por el Ministerio de Industria, Energía y Turismo, con la participación de comunidades autónomas, asociaciones empresariales, sindicatos, organismos de investigación y gestión medioambiental y otros agentes sociales en el territorio, tales como municipios o grupos de acción local.&lt;/p&gt;&lt;p&gt;Aseguraremos  procesos  productivos  sostenibles  mediante regulaciones adecuadas de los sistemas de trans- porte de los suministros, embalajes y reciclaje.&lt;/p&gt;&lt;p&gt;Impulsaremos el desarrollo de modelos de gestión de los establecimientos, de los servicios y de los destinos turísticos, así como de las instituciones que participan de ellos, basados en criterios eco-eficientes.&lt;/p&gt;&lt;p&gt;Promoveremos el desarrollo de los destinos turísticos gestionados mediante organismos participativos, capaces de incorporar los intereses de los distintos actores: empresarios, trabajadores, ciudadanos, gestores, investigadores, técnicos y responsables políticos.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inembargabilidad de la primera y única vivienda </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Promoveremos una declaración de inembargabilidad e inejecutabilidad de la primera y única vivienda, de ocupación permanente. Todo inmueble destinado a ser vivienda única y de ocupación permanente se declarará como un bien inembargable e inejecutable, salvo en caso de renuncia expresa del titular. &lt;/p&gt;&lt;p&gt;En caso de fallecimiento del titular del inmueble, la inembargabilidad e inejucatibilidad afectará a los familiares con ocupación permanente en dicho inmueble y que no tengan alternativa habitacional. Se entenderá por familiares aquellos con ascendencia o descendencia directa del antiguo titular fallecido.&lt;/p&gt;&lt;p&gt;Las garantías de inembargabilidad e inejecutable no serán oponibles respecto de deudas originadas en obligaciones alimentarias, impuestos, tasas, contribuciones, expensas que graven directamente la vivienda u obligaciones con garantía real sobre el inmueble y que hubiere sido constituida a los efectos de la adquisición, construcción o mejoras de la vivienda única.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminación de las cláusulas abusivas </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Promoveremos la eliminación automática e incondicional por parte de las entidades bancarias —y sin previa petición del titular— de las cláusulas declaradas abusivas por los tribunales, bajo apercibimiento de sanción en caso de no hacerlo. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observatorio del Derecho a la Vivienda </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Crearemos el Observatorio del Derecho a la Vivienda (ODV), con el objetivo de investigar y analizar la situación de la vivienda en España.&lt;/p&gt;&lt;p&gt;Las funciones del ODV incluirán la elaboración de censos periódicos de viviendas vacías, la realización de un seguimiento de las políticas públicas, y la elaboración de informes. Las capacidades del ODV no solo deben ser consultivas, sino también de control, seguimiento, denuncia, ejecución y elaboración de propuestas legislativas. &lt;/p&gt;&lt;p&gt;El ODV estará compuesto por representantes de las instituciones y de la sociedad civil.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Justicia independiente para los militares</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Reformaremos la Ley Orgánica del Poder Judicial para crear órganos especializados en materias disciplinarias y penales militares, servidos por jueces y magistrados con la formación adecuada e integrados en los órdenes jurisdiccionales contencioso-administrativo y penal. Y suprimiremos la Sala V del Tribunal Supremo de lo Militar por razones de economía, independencia y transparencia. La actual configuración de la justicia militar no garantiza su plena independencia del mando militar. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Una sanidad de gestión pública y un derecho garantizado para todas las personas en igualdad, con independencia del lugar donde se resida</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Incluiremos en la Ley General de Sanidad y en sus desarrollos normativos el precepto que garantice una sanidad pública universal, igualitaria, gratuita y de calidad para todos los ciudadanos y ciudadanas con independencia de su lugar de residencia.&lt;/p&gt;&lt;p&gt;La ley contemplará la obligación de destinar fondos esta- tales para cofinanciar suficientemente las infraestructuras y medios necesarios con el fin de corregir las desigualdades en materia de atención sanitaria pública, y cumplir los derechos humanos y constitucionales, así como las leyes y disposiciones vigentes. Ha de ser prioritaria la cofinanciación de centros hospitalarios y de atención especializada para las comarcas periféricas que se hallen a más de treinta minutos por carretera del hospital de referencia.&lt;/p&gt;&lt;p&gt;Es también imprescindible que las competencias autonómicas en materia de salud estén coordinadas y que exista la obligación de establecer Convenios Sanitarios que faciliten la atención completa a las poblaciones limítrofes, en especial para aquellos pacientes que necesiten una asistencia rápida y eficaz. Se hará también posible la elección de centro por proximidad y cercanía, con independencia de la Comunidad Autónoma en la que se resida, para la atención ambulatoria u hospitalaria.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2385,6 +2424,16 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
   </fonts>
@@ -2407,7 +2456,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -2428,6 +2477,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3508,7 +3562,7 @@
       <c r="C30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="4"/>
@@ -12472,7 +12526,7 @@
       <c r="C279" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D279" s="6" t="s">
+      <c r="D279" s="7" t="s">
         <v>562</v>
       </c>
       <c r="E279" s="4"/>
@@ -16459,15 +16513,23 @@
       <c r="Z389" s="4"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="4"/>
-      <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
-      <c r="E390" s="4"/>
-      <c r="F390" s="4"/>
-      <c r="G390" s="4"/>
-      <c r="H390" s="4"/>
-      <c r="I390" s="4"/>
+      <c r="A390" s="8">
+        <v>389.0</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E390" s="9"/>
+      <c r="F390" s="9"/>
+      <c r="G390" s="9"/>
+      <c r="H390" s="9"/>
+      <c r="I390" s="9"/>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
       <c r="L390" s="4"/>
@@ -16487,15 +16549,23 @@
       <c r="Z390" s="4"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="4"/>
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="4"/>
-      <c r="F391" s="4"/>
-      <c r="G391" s="4"/>
-      <c r="H391" s="4"/>
-      <c r="I391" s="4"/>
+      <c r="A391" s="8">
+        <v>390.0</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E391" s="9"/>
+      <c r="F391" s="9"/>
+      <c r="G391" s="9"/>
+      <c r="H391" s="9"/>
+      <c r="I391" s="9"/>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
       <c r="L391" s="4"/>
@@ -16515,15 +16585,23 @@
       <c r="Z391" s="4"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="4"/>
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4"/>
-      <c r="F392" s="4"/>
-      <c r="G392" s="4"/>
-      <c r="H392" s="4"/>
-      <c r="I392" s="4"/>
+      <c r="A392" s="8">
+        <v>391.0</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="E392" s="9"/>
+      <c r="F392" s="9"/>
+      <c r="G392" s="9"/>
+      <c r="H392" s="9"/>
+      <c r="I392" s="9"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
       <c r="L392" s="4"/>
@@ -16543,15 +16621,23 @@
       <c r="Z392" s="4"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="4"/>
-      <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="4"/>
-      <c r="F393" s="4"/>
-      <c r="G393" s="4"/>
-      <c r="H393" s="4"/>
-      <c r="I393" s="4"/>
+      <c r="A393" s="8">
+        <v>392.0</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E393" s="9"/>
+      <c r="F393" s="9"/>
+      <c r="G393" s="9"/>
+      <c r="H393" s="9"/>
+      <c r="I393" s="9"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
       <c r="L393" s="4"/>
@@ -16571,15 +16657,23 @@
       <c r="Z393" s="4"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="4"/>
-      <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
-      <c r="D394" s="4"/>
-      <c r="E394" s="4"/>
-      <c r="F394" s="4"/>
-      <c r="G394" s="4"/>
-      <c r="H394" s="4"/>
-      <c r="I394" s="4"/>
+      <c r="A394" s="8">
+        <v>393.0</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="E394" s="9"/>
+      <c r="F394" s="9"/>
+      <c r="G394" s="9"/>
+      <c r="H394" s="9"/>
+      <c r="I394" s="9"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
       <c r="L394" s="4"/>
@@ -16599,15 +16693,23 @@
       <c r="Z394" s="4"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="4"/>
-      <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
-      <c r="D395" s="4"/>
-      <c r="E395" s="4"/>
-      <c r="F395" s="4"/>
-      <c r="G395" s="4"/>
-      <c r="H395" s="4"/>
-      <c r="I395" s="4"/>
+      <c r="A395" s="8">
+        <v>394.0</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E395" s="9"/>
+      <c r="F395" s="9"/>
+      <c r="G395" s="9"/>
+      <c r="H395" s="9"/>
+      <c r="I395" s="9"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
       <c r="L395" s="4"/>
@@ -16627,15 +16729,15 @@
       <c r="Z395" s="4"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="4"/>
-      <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
-      <c r="E396" s="4"/>
-      <c r="F396" s="4"/>
-      <c r="G396" s="4"/>
-      <c r="H396" s="4"/>
-      <c r="I396" s="4"/>
+      <c r="A396" s="9"/>
+      <c r="B396" s="9"/>
+      <c r="C396" s="9"/>
+      <c r="D396" s="9"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="9"/>
+      <c r="G396" s="9"/>
+      <c r="H396" s="9"/>
+      <c r="I396" s="9"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
       <c r="L396" s="4"/>
@@ -16655,15 +16757,15 @@
       <c r="Z396" s="4"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="4"/>
-      <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
-      <c r="E397" s="4"/>
-      <c r="F397" s="4"/>
-      <c r="G397" s="4"/>
-      <c r="H397" s="4"/>
-      <c r="I397" s="4"/>
+      <c r="A397" s="9"/>
+      <c r="B397" s="9"/>
+      <c r="C397" s="9"/>
+      <c r="D397" s="9"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="9"/>
+      <c r="H397" s="9"/>
+      <c r="I397" s="9"/>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
       <c r="L397" s="4"/>
@@ -16683,15 +16785,15 @@
       <c r="Z397" s="4"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="4"/>
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
-      <c r="E398" s="4"/>
-      <c r="F398" s="4"/>
-      <c r="G398" s="4"/>
-      <c r="H398" s="4"/>
-      <c r="I398" s="4"/>
+      <c r="A398" s="9"/>
+      <c r="B398" s="9"/>
+      <c r="C398" s="9"/>
+      <c r="D398" s="9"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="9"/>
+      <c r="G398" s="9"/>
+      <c r="H398" s="9"/>
+      <c r="I398" s="9"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
       <c r="L398" s="4"/>
@@ -16711,15 +16813,15 @@
       <c r="Z398" s="4"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="4"/>
-      <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
-      <c r="D399" s="4"/>
-      <c r="E399" s="4"/>
-      <c r="F399" s="4"/>
-      <c r="G399" s="4"/>
-      <c r="H399" s="4"/>
-      <c r="I399" s="4"/>
+      <c r="A399" s="9"/>
+      <c r="B399" s="9"/>
+      <c r="C399" s="9"/>
+      <c r="D399" s="9"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="9"/>
+      <c r="G399" s="9"/>
+      <c r="H399" s="9"/>
+      <c r="I399" s="9"/>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
       <c r="L399" s="4"/>
@@ -16739,15 +16841,15 @@
       <c r="Z399" s="4"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="4"/>
-      <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
-      <c r="D400" s="4"/>
-      <c r="E400" s="4"/>
-      <c r="F400" s="4"/>
-      <c r="G400" s="4"/>
-      <c r="H400" s="4"/>
-      <c r="I400" s="4"/>
+      <c r="A400" s="9"/>
+      <c r="B400" s="9"/>
+      <c r="C400" s="9"/>
+      <c r="D400" s="9"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="9"/>
+      <c r="G400" s="9"/>
+      <c r="H400" s="9"/>
+      <c r="I400" s="9"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
       <c r="L400" s="4"/>
@@ -16767,15 +16869,15 @@
       <c r="Z400" s="4"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="4"/>
-      <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
-      <c r="E401" s="4"/>
-      <c r="F401" s="4"/>
-      <c r="G401" s="4"/>
-      <c r="H401" s="4"/>
-      <c r="I401" s="4"/>
+      <c r="A401" s="10"/>
+      <c r="B401" s="10"/>
+      <c r="C401" s="10"/>
+      <c r="D401" s="10"/>
+      <c r="E401" s="10"/>
+      <c r="F401" s="10"/>
+      <c r="G401" s="10"/>
+      <c r="H401" s="10"/>
+      <c r="I401" s="10"/>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
       <c r="L401" s="4"/>
